--- a/Statystyki_2018/Template/aglg2.xlsx
+++ b/Statystyki_2018/Template/aglg2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA440D-AE95-4F17-80FA-EBB557DB22C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA037FC9-C2C9-48BA-B3A1-06D59015C0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -792,13 +792,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -915,72 +939,6 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -988,34 +946,115 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1388,195 +1427,210 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O2" sqref="O2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
     <col min="19" max="19" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="72" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="74" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="73" t="s">
+      <c r="Y2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="75" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="78" t="s">
+      <c r="Q3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="T3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="U3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="78" t="s">
+      <c r="V3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="78" t="s">
+      <c r="W3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="73"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="47"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="73"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="47"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="N3:N4"/>
@@ -1584,17 +1638,8 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="O2:W2"/>
@@ -1602,11 +1647,6 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1631,60 +1671,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="18" t="s">
         <v>48</v>
       </c>
@@ -1745,60 +1785,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="20" t="s">
         <v>48</v>
       </c>
@@ -1854,46 +1894,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="25" t="s">
         <v>45</v>
       </c>
@@ -1970,40 +2010,40 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="60" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="60" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="60" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="61"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
@@ -2080,11 +2120,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2116,40 +2156,40 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="60" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="60" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2228,162 +2268,162 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -2586,11 +2626,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="34" t="s">
         <v>79</v>
       </c>
@@ -2643,11 +2683,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="34" t="s">
         <v>79</v>
       </c>
@@ -2768,16 +2808,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -2835,14 +2875,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -2957,24 +2997,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="48"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="38" t="s">
         <v>93</v>
       </c>
@@ -3093,16 +3133,16 @@
     </row>
     <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>

--- a/Statystyki_2018/Template/aglg2.xlsx
+++ b/Statystyki_2018/Template/aglg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA037FC9-C2C9-48BA-B3A1-06D59015C0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2EFA1-91AA-4101-94F5-43DB3CCF8172}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wydajność sędziów " sheetId="1" r:id="rId1"/>
@@ -946,32 +946,47 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1039,23 +1054,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1426,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:W2"/>
     </sheetView>
   </sheetViews>
@@ -1474,163 +1474,149 @@
       <c r="Y1" s="44"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="54" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="78" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="51" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="47"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="56"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="52"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="47"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="56"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="N3:N4"/>
@@ -1647,6 +1633,20 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1664,67 +1664,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="18" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="7" width="7.28515625" customWidth="1"/>
@@ -1785,60 +1785,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="20" t="s">
         <v>48</v>
       </c>
@@ -1894,46 +1894,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="25" t="s">
         <v>45</v>
       </c>
@@ -1988,7 +1988,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2010,40 +2010,40 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
@@ -2110,21 +2110,21 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:IV20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2156,40 +2156,40 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="72" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="72" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="72" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="72" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="73"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2268,292 +2268,210 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="42">
-        <v>86</v>
-      </c>
-      <c r="C11" s="42">
-        <v>88</v>
-      </c>
-      <c r="D11" s="42">
-        <v>59</v>
-      </c>
-      <c r="E11" s="42">
-        <v>21</v>
-      </c>
-      <c r="F11" s="42">
-        <v>8</v>
-      </c>
-      <c r="G11" s="43">
-        <f>F11/C11</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="H11" s="42">
-        <v>79</v>
-      </c>
-      <c r="I11" s="42">
-        <v>61</v>
-      </c>
-      <c r="J11" s="42">
-        <v>17</v>
-      </c>
-      <c r="K11" s="42">
-        <v>1</v>
-      </c>
-      <c r="L11" s="43">
-        <f>K11/H11</f>
-        <v>1.2658227848101266E-2</v>
-      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="42">
-        <v>7</v>
-      </c>
-      <c r="C12" s="42">
-        <v>7</v>
-      </c>
-      <c r="D12" s="42">
-        <v>6</v>
-      </c>
-      <c r="E12" s="42">
-        <v>0</v>
-      </c>
-      <c r="F12" s="42">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43">
-        <f>F12/C12</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H12" s="42">
-        <f>SUM(I12,J12,K12)</f>
-        <v>5</v>
-      </c>
-      <c r="I12" s="42">
-        <v>4</v>
-      </c>
-      <c r="J12" s="42">
-        <v>1</v>
-      </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
-        <f>K12/H12</f>
-        <v>0</v>
-      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="42">
-        <f>SUM(B11:B12)</f>
-        <v>93</v>
-      </c>
-      <c r="C13" s="42">
-        <f>SUM(C11:C12)</f>
-        <v>95</v>
-      </c>
-      <c r="D13" s="42">
-        <f>SUM(D11:D12)</f>
-        <v>65</v>
-      </c>
-      <c r="E13" s="42">
-        <f>SUM(E11:E12)</f>
-        <v>21</v>
-      </c>
-      <c r="F13" s="42">
-        <f>SUM(F11:F12)</f>
-        <v>9</v>
-      </c>
-      <c r="G13" s="43">
-        <f>F13/C13</f>
-        <v>9.4736842105263161E-2</v>
-      </c>
-      <c r="H13" s="42">
-        <f>SUM(H11:H12)</f>
-        <v>84</v>
-      </c>
-      <c r="I13" s="42">
-        <f>SUM(I11:I12)</f>
-        <v>65</v>
-      </c>
-      <c r="J13" s="42">
-        <f>SUM(J11:J12)</f>
-        <v>18</v>
-      </c>
-      <c r="K13" s="42">
-        <f>SUM(K11:K12)</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="43">
-        <f>K13/H13</f>
-        <v>1.1904761904761904E-2</v>
-      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2606,55 +2524,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="34.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="34" t="s">
         <v>79</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2663,55 +2575,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="34" t="s">
         <v>79</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2728,7 +2634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -2793,7 +2699,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -2870,7 +2776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2928,7 +2834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
   </cols>
@@ -2989,7 +2895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -2997,24 +2903,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="38" t="s">
         <v>93</v>
       </c>
@@ -3133,16 +3039,16 @@
     </row>
     <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>

--- a/Statystyki_2018/Template/aglg2.xlsx
+++ b/Statystyki_2018/Template/aglg2.xlsx
@@ -1,35 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2EFA1-91AA-4101-94F5-43DB3CCF8172}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AF929D-2150-41E6-BE0F-EFAB5D3455FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="16380" windowHeight="8190" tabRatio="818" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="wydajność sędziów " sheetId="1" r:id="rId1"/>
-    <sheet name="efektywny czas pracy Funkcyjni " sheetId="2" r:id="rId2"/>
-    <sheet name="efektywny czas pracy Liniowi" sheetId="15" r:id="rId3"/>
-    <sheet name="spr.&gt;2 lata I ins GA" sheetId="16" r:id="rId4"/>
-    <sheet name="spr.&gt;2 lata I ins GC" sheetId="3" r:id="rId5"/>
-    <sheet name="spr. &gt;3 mieś II inst" sheetId="4" r:id="rId6"/>
-    <sheet name="stan referatów" sheetId="5" r:id="rId7"/>
-    <sheet name="Sprawność postępowania" sheetId="13" r:id="rId8"/>
-    <sheet name="zawieszenia" sheetId="6" r:id="rId9"/>
-    <sheet name="uzasadnienia GC" sheetId="7" r:id="rId10"/>
-    <sheet name="uzasadnienia GA" sheetId="17" r:id="rId11"/>
-    <sheet name="p.międzyinstancyjne" sheetId="8" r:id="rId12"/>
-    <sheet name="odroczone nadzorcze GC" sheetId="9" r:id="rId13"/>
-    <sheet name="odroczone nadzorcze GA" sheetId="18" r:id="rId14"/>
-    <sheet name="Biegli" sheetId="12" r:id="rId15"/>
-    <sheet name="Arkusz1" sheetId="10" state="hidden" r:id="rId16"/>
-    <sheet name="Arkusz2" sheetId="11" state="hidden" r:id="rId17"/>
+    <sheet name="wydajność sędziów" sheetId="14" r:id="rId1"/>
+    <sheet name="wydajność sędziów 2" sheetId="1" r:id="rId2"/>
+    <sheet name="efektywny czas pracy" sheetId="2" r:id="rId3"/>
+    <sheet name="efektywny czas pracy (2)" sheetId="15" r:id="rId4"/>
+    <sheet name="spr.&gt;2 lata I ins" sheetId="3" r:id="rId5"/>
+    <sheet name="spr.&gt;2 lata I ins (2)" sheetId="16" r:id="rId6"/>
+    <sheet name="spr. &gt;3 mieś II inst" sheetId="4" r:id="rId7"/>
+    <sheet name="stan referatów I" sheetId="17" r:id="rId8"/>
+    <sheet name="stan referatów I I" sheetId="5" r:id="rId9"/>
+    <sheet name="Sprawność postępowania" sheetId="13" r:id="rId10"/>
+    <sheet name="zawieszenia" sheetId="6" r:id="rId11"/>
+    <sheet name="uzasadnienia" sheetId="7" r:id="rId12"/>
+    <sheet name="uzasadnienia (2)" sheetId="18" r:id="rId13"/>
+    <sheet name="p.międzyinstancyjne" sheetId="8" r:id="rId14"/>
+    <sheet name="odroczone nadzorcze" sheetId="9" r:id="rId15"/>
+    <sheet name="odroczone nadzorcze (2)" sheetId="19" r:id="rId16"/>
+    <sheet name="Biegli" sheetId="12" r:id="rId17"/>
+    <sheet name="Arkusz1" sheetId="10" state="hidden" r:id="rId18"/>
+    <sheet name="Arkusz2" sheetId="11" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>Sędzia</t>
   </si>
@@ -173,6 +175,30 @@
   </si>
   <si>
     <t xml:space="preserve">Terminy czynności nadzorczych </t>
+  </si>
+  <si>
+    <t>Art. 174 § 1 pkt 1 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 174 § 1 pkt 2 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 174 § 1 pkt 4 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 177 § 1 pkt 1 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 177 § 1 pkt 3 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 177 § 1 pkt 4 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 177 § 1 pkt 6 k.p.c.</t>
+  </si>
+  <si>
+    <t>Art. 178 k.p.c.</t>
   </si>
   <si>
     <t>sędzia</t>
@@ -228,6 +254,9 @@
     <t>ponad 3 mies.</t>
   </si>
   <si>
+    <t>Sprawność postępowania międzyinstancyjnego</t>
+  </si>
+  <si>
     <t xml:space="preserve">Postępowanie międzyinstancyjne </t>
   </si>
   <si>
@@ -246,6 +275,9 @@
     <t>%</t>
   </si>
   <si>
+    <t>odroczone sprawy GC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sędzia </t>
   </si>
   <si>
@@ -318,6 +350,15 @@
     <t>Uzasadnienia GC I instancja</t>
   </si>
   <si>
+    <t>GC 156/02 ; GC 368/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GC 474/15; GC 286/17</t>
+  </si>
+  <si>
+    <t>Sprawy zawieszone II instancja wg stanu na dzień 31.03.2018</t>
+  </si>
+  <si>
     <t>Wnioski przekazane do oddziału finansowego, licząc od daty uprawomocnienia orzeczenia</t>
   </si>
   <si>
@@ -360,6 +401,9 @@
     <t>wskaźnik pozostałości</t>
   </si>
   <si>
+    <t>Wskaźnik pozostałości</t>
+  </si>
+  <si>
     <t>Terminowość przyznawania wynagrodzeń i wypłaty biegłym i tłumaczom</t>
   </si>
   <si>
@@ -372,21 +416,84 @@
     <t>I</t>
   </si>
   <si>
-    <t>Wydajność sędziów</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprawy zawieszone II instancja </t>
+    <t xml:space="preserve"> Sąd nie podejmuje czynności  X GC 277/15; X GC 481/15;       X GC 185/17; X GC 316/17; X GC 331/17</t>
+  </si>
+  <si>
+    <t>GNc  353/17; GNc 401/17; GNc 73/18; GNc 521/17; GCo 90/16; Gco 9/18; GC 160/13; GC 407/13;  GC 501/14; GC 470/15;    GC 475/15; GC 390/16;  GC 459/16; GC 113/17; GC 251/17;  GC 427/17; GC 463/17; GC 5151/17; GC 237/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GC 278/12; GC 295/13; GC 391/13; GC 12/14 (co do jednego z pozwanych); GC 188/14; GNc 233/14; GC 513/14; GC 356/14; GC 460/15; GNc 197/15; GNc 473/15; GC 149/15; GC 444/15; GC 448/15; GNc 19/16; GC 489/15; GC 6/16; GC 232/16;      GC 136/15; GC 19/15; GC 517/15; GC 446/16; GC 469/16;   GNc 639/16; GNc 633/16; GNc 470/17; GC 546/16; GC 432/17; GC391/18; GC 349/16; GNc 622/17; Gc 75/18; GC 216/18;    GC 384/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC 281/05; GNc 258/12; GC 221/15; GC 397/14; GC 287/15; GC 120/15; GC 90/16; GC 548/16; GC 361/16; GC 599/16;      GC 416/17; GC 435/17; GC 482/17; GC 517/17; GCo 108/17; GC 20/18; GC 42/18; GC 66/18; GC 112/18; GC 171/18;        GC 172/18; GC 262/18; GC 349/18; GCo 5/18; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNc 228/18; GC 389/17; GC 305/17; GC 375/17; GC 546/17; GC 547/17; GC 1/18; GC 104/18; GC 138/18;GC 165/18;       GC 205/18; GC 361/18 - nie podejmuje się czynności sprawdzenia ustania przyczyny zawieszenia </t>
+  </si>
+  <si>
+    <t>Art. 177 § 6 k.p.c.</t>
+  </si>
+  <si>
+    <t>X GC 97/18  nie podejmuje się czynności sprawdzenia ustania przyczyny zawieszenia</t>
+  </si>
+  <si>
+    <t>GC 110/16; GC 90/17; GC 388/17; - nie podejmuje się czynności sprawdzenia ustania przyczyny zawieszenia</t>
+  </si>
+  <si>
+    <t>Sprawy zawieszone I instancja wg stanu na dzień 30.09.2018</t>
+  </si>
+  <si>
+    <t>X Ga 505/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WSC 4/14(Ga 331/13) Sąd nie podejmuje czynności w sprawie </t>
+  </si>
+  <si>
+    <t>X Ga 365/15, Ga 319/16; Ga 445/17; Ga 7/18</t>
+  </si>
+  <si>
+    <t>Ga 379/17</t>
+  </si>
+  <si>
+    <t>Ga 288/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wydajność sędziów </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wydajność sędziów w okresie </t>
+  </si>
+  <si>
+    <t>efektywny czas pracy</t>
+  </si>
+  <si>
+    <t>Ilość spraw GC,w których postępowanie toczy się powyżej 2 lat</t>
+  </si>
+  <si>
+    <t>Ilość spraw Ga,w których postępowanie toczy się powyżej 2 lat</t>
+  </si>
+  <si>
+    <t>Ilość spraw Ga, w których postępowanie toczy się powyżej 3 miesięcy od daty wpływu akt do Sądu II instancji</t>
+  </si>
+  <si>
+    <t>Stan referatów  - I instancja</t>
+  </si>
+  <si>
+    <t>Stan referatów - II instancja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* \-??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* \-??\ _z_ł_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -462,6 +569,12 @@
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -546,6 +659,13 @@
       <charset val="238"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -574,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -589,19 +709,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -629,26 +736,13 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -695,16 +789,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -793,122 +911,118 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,70 +1037,91 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1000,68 +1135,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny_analizy 2013" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normalny_analizy 2013" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1423,230 +1552,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:W2"/>
+      <selection activeCell="C4" sqref="C4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I4" s="49"/>
+      <c r="J4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="K4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="L4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="M4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="N4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="O4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="V3" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="56"/>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="56"/>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="30">
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1655,105 +1713,405 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A4" sqref="A4:IV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
+      <c r="B3" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B7:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="16">
+        <f>SUM(B22:B27)</f>
+        <v>8</v>
+      </c>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="30" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.95972222222222225" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:IV16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>49</v>
+      <c r="A4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:B4"/>
@@ -1766,17 +2124,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A5" sqref="A5:IV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="7" width="7.28515625" customWidth="1"/>
@@ -1785,89 +2143,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="H1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>49</v>
+      <c r="A4" s="78"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:B4"/>
@@ -1880,12 +2230,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A2:G6"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:IV3"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1893,84 +2243,114 @@
     <col min="1" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="27"/>
+      <c r="B7" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="24" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="6">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="1.3388888888888888" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1978,269 +2358,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:O3"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:IV1"/>
+      <selection activeCell="A5" sqref="A5:IV67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="15" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="78"/>
-      <c r="N2" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="78"/>
-    </row>
-    <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
-      <c r="B3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="A1" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="78"/>
-    </row>
-    <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="B3" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="87"/>
+      <c r="L3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="9">
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F3:G3"/>
@@ -2252,231 +2505,377 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:IV21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="15" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="87"/>
+      <c r="L3" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="87"/>
+    </row>
+    <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="9">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="91" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82" t="s">
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="82" t="s">
-        <v>91</v>
+      <c r="I7" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="91" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="43"/>
+      <c r="A11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="43"/>
+      <c r="A12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L7:L10"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="C2:G5"/>
@@ -2492,14 +2891,15 @@
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="599" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2510,8 +2910,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2523,50 +2923,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>28</v>
-      </c>
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="15">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:K2"/>
+  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2574,50 +3072,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="J1" sqref="J1:L65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="14.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="H2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2625,81 +3143,87 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="17" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="14.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>36</v>
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <printOptions verticalCentered="1"/>
-  <pageMargins left="1.3777777777777778" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A5" sqref="A5:IV42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -2714,51 +3238,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="1.3777777777777778" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2767,346 +3308,291 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5:IV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="17" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J2"/>
+  </mergeCells>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="1.3777777777777778" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:IV16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H3" s="39" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:L2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="1.0798611111111112" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:I4"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:IV18"/>
+      <selection activeCell="A5" sqref="A5:IV41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:C28"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:3" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="C4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="14">
-        <f>SUM(B4:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="35"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="35"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="14">
-        <f>SUM(B19:B24)</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="27" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <pageMargins left="0.95972222222222225" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageMargins left="1.0798611111111112" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
